--- a/DOM_Banner/output/dept_banner/Michel Corban_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Michel Corban_2022.xlsx
@@ -918,7 +918,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5044475225", "https://openalex.org/A5049816993", "https://openalex.org/A5088951269", "https://openalex.org/A5020808949", "https://openalex.org/A5077881801", "https://openalex.org/A5027367849", "https://openalex.org/A5029129626"), au_display_name = c("Hyun Woong Park", "Michel Corban", "Takumi Toya", "Ali Ahmad", "Ilke Ӧzcan", "Lilach O. Lerman", "Amir Lerman"), au_orcid = c("https://orcid.org/0000-0001-7765-2259", NA, "https://orcid.org/0000-0002-4681-2798", 
+          <t>list(au_id = c("https://openalex.org/A5044475225", "https://openalex.org/A5049816993", "https://openalex.org/A5088951269", "https://openalex.org/A5020808949", "https://openalex.org/A5077881801", "https://openalex.org/A5027367849", "https://openalex.org/A5029129626"), au_display_name = c("Hyun Woong Park", "Michel Corban", "Takumi Toya", "Ali Ahmad", "Ilke Özcan", "Lilach O. Lerman", "Amir Lerman"), au_orcid = c("https://orcid.org/0000-0001-7765-2259", NA, "https://orcid.org/0000-0002-4681-2798", 
 "https://orcid.org/0000-0001-9669-8009", "https://orcid.org/0000-0003-2006-3431", "https://orcid.org/0000-0002-3271-3887", "https://orcid.org/0000-0002-9446-5313"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Cardiovascular Disease, Chungnam National University Sejong Hospital, Sejong, Republic of Korea.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA.", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA", 
 "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiology, National Defense Medical College, Tokorozawa, Saitama, Japan", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA", "Division of Nephrology and Hypertension, Mayo Clinic, Rochester, Minnesota, USA", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA"), institution_id = c("https://openalex.org/I196345858", 
 "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723"), institution_display_name = c("Chungnam National University", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic"), institution_ror = c("https://ror.org/0227as991", "https://ror.org/02qp3tb03", "https://ror.org/02qp3tb03", "https://ror.org/02qp3tb03", 

--- a/DOM_Banner/output/dept_banner/Michel Corban_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Michel Corban_2022.xlsx
@@ -918,7 +918,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5044475225", "https://openalex.org/A5049816993", "https://openalex.org/A5088951269", "https://openalex.org/A5020808949", "https://openalex.org/A5077881801", "https://openalex.org/A5027367849", "https://openalex.org/A5029129626"), au_display_name = c("Hyun Woong Park", "Michel Corban", "Takumi Toya", "Ali Ahmad", "Ilke Özcan", "Lilach O. Lerman", "Amir Lerman"), au_orcid = c("https://orcid.org/0000-0001-7765-2259", NA, "https://orcid.org/0000-0002-4681-2798", 
+          <t>list(au_id = c("https://openalex.org/A5044475225", "https://openalex.org/A5049816993", "https://openalex.org/A5088951269", "https://openalex.org/A5020808949", "https://openalex.org/A5077881801", "https://openalex.org/A5027367849", "https://openalex.org/A5029129626"), au_display_name = c("Hyun Woong Park", "Michel Corban", "Takumi Toya", "Ali Ahmad", "Ilke Ӧzcan", "Lilach O. Lerman", "Amir Lerman"), au_orcid = c("https://orcid.org/0000-0001-7765-2259", NA, "https://orcid.org/0000-0002-4681-2798", 
 "https://orcid.org/0000-0001-9669-8009", "https://orcid.org/0000-0003-2006-3431", "https://orcid.org/0000-0002-3271-3887", "https://orcid.org/0000-0002-9446-5313"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Cardiovascular Disease, Chungnam National University Sejong Hospital, Sejong, Republic of Korea.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA.", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA", 
 "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiology, National Defense Medical College, Tokorozawa, Saitama, Japan", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA", "Division of Nephrology and Hypertension, Mayo Clinic, Rochester, Minnesota, USA", "Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA"), institution_id = c("https://openalex.org/I196345858", 
 "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723", "https://openalex.org/I1330342723"), institution_display_name = c("Chungnam National University", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic", "Mayo Clinic"), institution_ror = c("https://ror.org/0227as991", "https://ror.org/02qp3tb03", "https://ror.org/02qp3tb03", "https://ror.org/02qp3tb03", 
@@ -1777,7 +1777,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2045300262", "https://openalex.org/W3113216408", "https://openalex.org/W2362699993", "https://openalex.org/W4376630782", "https://openalex.org/W2549279049", "https://openalex.org/W2596607501", "https://openalex.org/W1997789843", "https://openalex.org/W2779180629", "https://openalex.org/W2094813351", "https://openalex.org/W2011390101")</t>
+          <t>c("https://openalex.org/W4376630782", "https://openalex.org/W2011390101", "https://openalex.org/W2055328644", "https://openalex.org/W187006441", "https://openalex.org/W2126428213", "https://openalex.org/W4232019426", "https://openalex.org/W2403796750", "https://openalex.org/W4385397996", "https://openalex.org/W3110630109", "https://openalex.org/W3090392807")</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Michel Corban_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Michel Corban_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Division of Cardiology, Department of Medicine, University of Arizona College of Medicine-Tucson (M.T.C.).; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Biomedical Statistics and Informatics (B.R.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.; Division of Nephrology and Hypertension, Department of Medicine (L.O.L.), Mayo Clinic, Rochester, MN.; Division of Transfusion Medicine, Department of Laboratory Medicine and Pathology (M.L.S., J.L.W., A.B.D.), Mayo Clinic, Rochester, MN.; Laboratory Medicine and Pathology, Mayo Clinic, UNITED STATES.; Division of Transfusion Medicine, Department of Laboratory Medicine and Pathology (M.L.S., J.L.W., A.B.D.), Mayo Clinic, Rochester, MN.; Department of Cardiovascular Medicine (M.T.C., T.T., D.A., F.S., J.B., R.G., A.P., P.J.M.B., M.R.B., C.S.R., M.P., A.A., L.O.L., A.L.), Mayo Clinic, Rochester, MN.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4200310986</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>IMPROvE-CED Trial: Intracoronary Autologous CD34+ Cell Therapy for Treatment of Coronary Endothelial Dysfunction in Patients With Angina and Nonobstructive Coronary Arteries</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Circulation Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circresaha.121.319644</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34923853</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circresaha.121.319644</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>The Carl and Edyth Lindner Center for Research and Education, The Christ Hospital, Cincinnati, OH (O.Q., T.D.H.).; Barbra Streisand Women’s Heart Center, Smidt Heart Institute, Cedars-Sinai Medical Center, Los Angeles, CA (C.N.B.M., J.W., S.J.).; Barbra Streisand Women’s Heart Center, Smidt Heart Institute, Cedars-Sinai Medical Center, Los Angeles, CA (C.N.B.M., J.W., S.J.).; Mayo Clinic, Rochester, MN (M.T.C., A.L.).; The Carl and Edyth Lindner Center for Research and Education, The Christ Hospital, Cincinnati, OH (O.Q., T.D.H.).; Barbra Streisand Women’s Heart Center, Smidt Heart Institute, Cedars-Sinai Medical Center, Los Angeles, CA (C.N.B.M., J.W., S.J.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Mayo Clinic, Rochester, MN (M.T.C., A.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).; Caladrius Biosciences, Basking Ridge, NJ (C.L.K., J.W., M.L., A.M.S., R.L.B., H.T., V.S., A.L., W.K.S., D.W.L.).</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4207070884</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Autologous CD34+ Stem Cell Therapy Increases Coronary Flow Reserve and Reduces Angina in Patients With Coronary Microvascular Dysfunction</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Circulation: Cardiovascular Interventions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circinterventions.121.010802</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35067072</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circinterventions.121.010802</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hyun Woong Park, Michel Corban, Takumi Toya, Ali Ahmad, Ilke Ӧzcan, Lilach O. Lerman, Amir Lerman</t>
+          <t>Hyun Woong Park, Michel Corban, Takumi Toya, Ali Ahmad, Ilke Özcan, Lilach O. Lerman, Amir Lerman</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular Disease, Chungnam National University Sejong Hospital, Sejong, Republic of Korea.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Cardiology, National Defense Medical College, Tokorozawa, Saitama, Japan; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA; Division of Nephrology and Hypertension, Mayo Clinic, Rochester, Minnesota, USA; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, Minnesota, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210338239</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Impact of invasive aortic pulse pressure on coronary microvascular endothelial-independent dysfunction and on mortality in non-obstructive coronary artery disease</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Open Heart</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/openhrt-2021-001925</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35105720</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/openhrt-2021-001925</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA; Mayo Clinic, Rochester, MN, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220716075</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CLONAL HEMATOPOIESIS OF INDETERMINATE POTENTIAL IS ASSOCIATED WITH FUTURE CARDIOVASCULAR EVENTS IN PATIENTS WITH EARLY VASCULAR AGING</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02751-6</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02751-6</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA; University of Arizona-Banner University Medical Center, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221041041</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>IN-VITRO EFFECT OF SHOCKWAVE INTRAVASCULAR LITHOTRIPSY ON CORONARY DRUG-ELUTING STENT POLYMER VISUALIZED BY SCANNING ELECTRON MICROSCOPY</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01657-6</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>de</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01657-6</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Banner University Medical Center, Tucson, AZ, USA; Banner University Medical Center, Tucson, AZ, USA; Banner University Medical Center, Tucson, AZ, USA; Banner University Medical Center, Tucson, AZ, USA; Banner University Medical Center, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221130373</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>RIGHT CORONARY ARTERY ATHEROTHROMBOSIS MIMICKING SPONTANEOUS CORONARY ARTERY DISSECTION: MYSTERY SOLVED BY INTRACORONARY OPTICAL COHERENCE TOMOGRAPHY</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)03804-9</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)03804-9</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, Tucson, AZ; Univ of Arizona, Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; MAYO CLINIC, Rochester, MN; Univ of Arizona, Tucson, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380794516</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Abstract 11774: Heart Failure With Preserved Ejection Fraction Secondary to Coronary Endothelial Dysfunction and Microvascular Disease</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11774</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11774</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Dept of Medicine, Univ of Arizona, Tucson, AZ; Dept of Medicine, Univ of Arizona, Tucson, AZ; Dept of Medicine, Univ of Arizona, Tucson, AZ; Univ of Arizona, Tucson, AZ; Univ of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380794620</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Abstract 11712: Transcatheter Reconstruction of Right Ventricular Outflow Tract After Severe External Compression by a Pseudoaneurysm in an Adult With Tetralogy of Fallot</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11712</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11712</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Internal Medicine, Mayo Clinic, Rochester, MN; Mayo Clinic, Rochester, MN; Mayo Clinic, Rochester, MN; Mayo Clinic, Rochester, MN; Mayo Clinic, Rochester, MN; MAYO CLINIC, Rochester, MN; Internal Medicine, Mayo Clinic, Rochester, MN; MAYO CLINIC, Rochester, MN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795755</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Abstract 14553: Clonal Hematopoiesis of Indeterminate Potential is Associated With Atrial Fibrillation in Patients With Early Coronary Artery Disease</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14553</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14553</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Univ of Arizona, Tucson, AZ; Somerville, MA; Univ of Arizona, Tucson, AZ; Univ of Arizona COM Tucson, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; Tucson, AZ; Univ of Arizona, Tucson, AZ; UNIVERSITY OF ARIZONA, Tucson, AZ; The Univ of Arizona, Tucson, AZ; Univ of Arizona Hosp, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795756</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Abstract 14581: Massive Sinus of Valsalva Aneurysm With Rupture Into the Right Atrium</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14581</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ; Infectious Disease, Banner Univ Med Cntr, Tucson, AZ; Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Banner Univ Med Cntr, Tucson, AZ; Internal Medicine, Banner Univ Med Cntr, Tucson, AZ; Cardiology, Banner Univ Med Cntr, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380795774</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Abstract 14522: Infective Mitral Valve Endocarditis in an Immunocompetent Patient Caused by Lactobacillus Species Transmitted by Intranasal Cocaine Use</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14522</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.14522</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
